--- a/Optimisation2.xlsx
+++ b/Optimisation2.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leeds365-my.sharepoint.com/personal/cmtmd_leeds_ac_uk/Documents/PhD project infomation/Data/Code/Python/paper code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leeds365-my.sharepoint.com/personal/cmtmd_leeds_ac_uk/Documents/Research PhD project infomation/Written documents/Papers/Autonomous HPLC method development using optimisation algorithms/paper code/Python code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{0A5B159B-23A0-415B-80A9-2960A16C11B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CC41817-068F-484E-B898-8F5F1B4A4EF8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{206467EA-B1E8-43A6-945F-A3CE9A48BB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2604" yWindow="1440" windowWidth="17280" windowHeight="8904" activeTab="1" xr2:uid="{DBFCFACE-84D8-46B8-8005-634FCA87B3AC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DBFCFACE-84D8-46B8-8005-634FCA87B3AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>GradTime</t>
   </si>
@@ -80,9 +81,6 @@
   </si>
   <si>
     <t>WeightRespcmtmdHPLC018</t>
-  </si>
-  <si>
-    <t>Experiment</t>
   </si>
 </sst>
 </file>
@@ -139,9 +137,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,7 +177,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -285,7 +283,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,7 +425,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -437,13 +435,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC0F599-52FA-4188-9CBD-8701FBDEBAD4}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection sqref="A1:O41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8.84</v>
       </c>
@@ -537,7 +535,7 @@
         <v>0.150285904278216</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.19</v>
       </c>
@@ -584,7 +582,7 @@
         <v>0.124913941499996</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6.38</v>
       </c>
@@ -631,7 +629,7 @@
         <v>0.120015448512691</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.29</v>
       </c>
@@ -678,7 +676,7 @@
         <v>0.16993657895616701</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8.39</v>
       </c>
@@ -725,7 +723,7 @@
         <v>0.17659047152232499</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.24</v>
       </c>
@@ -772,7 +770,7 @@
         <v>4.1365689958837902E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.87</v>
       </c>
@@ -819,7 +817,7 @@
         <v>0.121543175671596</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.0000014453400301</v>
       </c>
@@ -866,7 +864,7 @@
         <v>4.2845955389834801E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2.4405825333375302</v>
       </c>
@@ -913,7 +911,7 @@
         <v>5.5201024580438601E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.00007473162899</v>
       </c>
@@ -960,7 +958,7 @@
         <v>0.110212613181195</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9.9941856187039004</v>
       </c>
@@ -1007,7 +1005,7 @@
         <v>7.4330647512729803E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6.7062836910221204</v>
       </c>
@@ -1054,7 +1052,7 @@
         <v>0.15250604707057999</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9.98839858123916</v>
       </c>
@@ -1101,7 +1099,7 @@
         <v>6.8292711306741097E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.0000000793413</v>
       </c>
@@ -1148,7 +1146,7 @@
         <v>0.107908628889564</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.00000002743231</v>
       </c>
@@ -1195,7 +1193,7 @@
         <v>3.22612962485763E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.00891737857479</v>
       </c>
@@ -1242,7 +1240,7 @@
         <v>4.4528754197885302E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.0000000268273299</v>
       </c>
@@ -1289,7 +1287,7 @@
         <v>5.33353472379594E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.0000581636802199</v>
       </c>
@@ -1336,7 +1334,7 @@
         <v>0.20980565656202799</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.0000068075838</v>
       </c>
@@ -1383,7 +1381,7 @@
         <v>2.2161703767305401E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.00027902424774</v>
       </c>
@@ -1430,7 +1428,7 @@
         <v>0.16759394466145</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.0007552252937599</v>
       </c>
@@ -1477,7 +1475,7 @@
         <v>2.4897142128925399E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9.9970586871584395</v>
       </c>
@@ -1524,7 +1522,7 @@
         <v>4.5679271602330797E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1.0000011353995399</v>
       </c>
@@ -1571,7 +1569,7 @@
         <v>3.1167009278351199E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1.00288421356914</v>
       </c>
@@ -1618,7 +1616,7 @@
         <v>1.4966606102698799E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1.00014023053757</v>
       </c>
@@ -1665,7 +1663,7 @@
         <v>6.9405677131582605E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1.0000047719648899</v>
       </c>
@@ -1712,7 +1710,7 @@
         <v>1.7207393680653101E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9.9574820815927794</v>
       </c>
@@ -1759,7 +1757,7 @@
         <v>3.6465308057626503E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1.0030983297369001</v>
       </c>
@@ -1806,7 +1804,7 @@
         <v>6.9937944580978004E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1.00034735534363</v>
       </c>
@@ -1853,7 +1851,7 @@
         <v>2.34633847408805E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1.01644941386139</v>
       </c>
@@ -1900,7 +1898,7 @@
         <v>0.13864615392740301</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1.00060425281508</v>
       </c>
@@ -1947,7 +1945,7 @@
         <v>0.14375462411668299</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1.0001614689092999</v>
       </c>
@@ -1994,7 +1992,7 @@
         <v>0.20806980932286701</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9.9979055284277791</v>
       </c>
@@ -2041,7 +2039,7 @@
         <v>0.224188427554708</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9.9999981626591907</v>
       </c>
@@ -2088,7 +2086,7 @@
         <v>5.20410661637737E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1.00276893558813</v>
       </c>
@@ -2135,7 +2133,7 @@
         <v>0.21272273495335101</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1.00388498532863</v>
       </c>
@@ -2182,7 +2180,7 @@
         <v>3.23583591597131E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1.0039481249848199</v>
       </c>
@@ -2229,7 +2227,7 @@
         <v>0.20985114235529501</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1.0040335380757699</v>
       </c>
@@ -2276,7 +2274,7 @@
         <v>0.14025932562869201</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9.9999999079770401</v>
       </c>
@@ -2323,7 +2321,7 @@
         <v>6.2819567043390395E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1.00000065989336</v>
       </c>
@@ -2367,1091 +2365,6 @@
         <v>0.21953690326240799</v>
       </c>
       <c r="O41">
-        <v>3.9458111990431803E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2B2233-14F3-42ED-AF20-EABEDB0159DB}">
-  <dimension ref="A1:J41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>8.84</v>
-      </c>
-      <c r="C2">
-        <v>16.18</v>
-      </c>
-      <c r="D2">
-        <v>7.25</v>
-      </c>
-      <c r="E2">
-        <v>-5.7491498405486396</v>
-      </c>
-      <c r="F2">
-        <v>-6</v>
-      </c>
-      <c r="G2">
-        <v>14.2057560840646</v>
-      </c>
-      <c r="H2">
-        <v>0.150285904278216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>5.19</v>
-      </c>
-      <c r="C3">
-        <v>38.159999999999997</v>
-      </c>
-      <c r="D3">
-        <v>4.68</v>
-      </c>
-      <c r="E3">
-        <v>0.57564794858346802</v>
-      </c>
-      <c r="F3">
-        <v>-7</v>
-      </c>
-      <c r="G3">
-        <v>8.4846848267447008</v>
-      </c>
-      <c r="H3">
-        <v>0.124913941499996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>6.38</v>
-      </c>
-      <c r="C4">
-        <v>22.25</v>
-      </c>
-      <c r="D4">
-        <v>0.17</v>
-      </c>
-      <c r="E4">
-        <v>0.63065094538844602</v>
-      </c>
-      <c r="F4">
-        <v>-7</v>
-      </c>
-      <c r="G4">
-        <v>5.5919174749732301</v>
-      </c>
-      <c r="H4">
-        <v>0.120015448512691</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2.29</v>
-      </c>
-      <c r="C5">
-        <v>50.35</v>
-      </c>
-      <c r="D5">
-        <v>9.19</v>
-      </c>
-      <c r="E5">
-        <v>0.37462885513854499</v>
-      </c>
-      <c r="F5">
-        <v>-6</v>
-      </c>
-      <c r="G5">
-        <v>6.16615229364188</v>
-      </c>
-      <c r="H5">
-        <v>0.16993657895616701</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>8.39</v>
-      </c>
-      <c r="C6">
-        <v>53.73</v>
-      </c>
-      <c r="D6">
-        <v>1.88</v>
-      </c>
-      <c r="E6">
-        <v>0.47719671417074899</v>
-      </c>
-      <c r="F6">
-        <v>-6</v>
-      </c>
-      <c r="G6">
-        <v>4.2452693101339598</v>
-      </c>
-      <c r="H6">
-        <v>0.17659047152232499</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1.24</v>
-      </c>
-      <c r="C7">
-        <v>34.5</v>
-      </c>
-      <c r="D7">
-        <v>6.98</v>
-      </c>
-      <c r="E7">
-        <v>-2.1466840345922399E-2</v>
-      </c>
-      <c r="F7">
-        <v>-7</v>
-      </c>
-      <c r="G7">
-        <v>9.1004517909443301</v>
-      </c>
-      <c r="H7">
-        <v>4.1365689958837902E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>3.87</v>
-      </c>
-      <c r="C8">
-        <v>9.31</v>
-      </c>
-      <c r="D8">
-        <v>3.61</v>
-      </c>
-      <c r="E8">
-        <v>-3.0111510332191398</v>
-      </c>
-      <c r="F8">
-        <v>-6</v>
-      </c>
-      <c r="G8">
-        <v>7.8823557906082904</v>
-      </c>
-      <c r="H8">
-        <v>0.121543175671596</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1.0000014453400301</v>
-      </c>
-      <c r="C9">
-        <v>33.136763824326501</v>
-      </c>
-      <c r="D9">
-        <v>7.4443119736675198</v>
-      </c>
-      <c r="E9">
-        <v>-0.25090641770600902</v>
-      </c>
-      <c r="F9">
-        <v>-7</v>
-      </c>
-      <c r="G9">
-        <v>9.42611018576366</v>
-      </c>
-      <c r="H9">
-        <v>4.2845955389834801E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>2.4405825333375302</v>
-      </c>
-      <c r="C10">
-        <v>31.785253509631598</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3.01207687183701E-6</v>
-      </c>
-      <c r="E10">
-        <v>0.27668331419429998</v>
-      </c>
-      <c r="F10">
-        <v>-7</v>
-      </c>
-      <c r="G10">
-        <v>3.01367603928459</v>
-      </c>
-      <c r="H10">
-        <v>5.5201024580438601E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1.00007473162899</v>
-      </c>
-      <c r="C11">
-        <v>22.991541857623901</v>
-      </c>
-      <c r="D11">
-        <v>3.2845995438096498</v>
-      </c>
-      <c r="E11">
-        <v>0.570941773104787</v>
-      </c>
-      <c r="F11">
-        <v>-7</v>
-      </c>
-      <c r="G11">
-        <v>5.4056963874048201</v>
-      </c>
-      <c r="H11">
-        <v>0.110212613181195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>9.9941856187039004</v>
-      </c>
-      <c r="C12">
-        <v>27.811771561833901</v>
-      </c>
-      <c r="D12">
-        <v>9.9177270201817809</v>
-      </c>
-      <c r="E12">
-        <v>-3.0832839724385299E-2</v>
-      </c>
-      <c r="F12">
-        <v>-7</v>
-      </c>
-      <c r="G12">
-        <v>16.352742452800602</v>
-      </c>
-      <c r="H12">
-        <v>7.4330647512729803E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>6.7062836910221204</v>
-      </c>
-      <c r="C13">
-        <v>5.0000000069538899</v>
-      </c>
-      <c r="D13">
-        <v>8.4993180739708603</v>
-      </c>
-      <c r="E13">
-        <v>-5.1271499205991304</v>
-      </c>
-      <c r="F13">
-        <v>-6</v>
-      </c>
-      <c r="G13">
-        <v>14.6941874983848</v>
-      </c>
-      <c r="H13">
-        <v>0.15250604707057999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>9.98839858123916</v>
-      </c>
-      <c r="C14">
-        <v>33.919998754093697</v>
-      </c>
-      <c r="D14">
-        <v>9.5533629880310702</v>
-      </c>
-      <c r="E14">
-        <v>-0.150614724153109</v>
-      </c>
-      <c r="F14">
-        <v>-7</v>
-      </c>
-      <c r="G14">
-        <v>15.024396487482999</v>
-      </c>
-      <c r="H14">
-        <v>6.8292711306741097E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1.0000000793413</v>
-      </c>
-      <c r="C15">
-        <v>37.494657245285097</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5.0056640829502896</v>
-      </c>
-      <c r="E15">
-        <v>0.50884506858303502</v>
-      </c>
-      <c r="F15">
-        <v>-7</v>
-      </c>
-      <c r="G15">
-        <v>6.9480110924639602</v>
-      </c>
-      <c r="H15">
-        <v>0.107908628889564</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1.00000002743231</v>
-      </c>
-      <c r="C16">
-        <v>28.695181035736301</v>
-      </c>
-      <c r="D16">
-        <v>5.0275278921669697</v>
-      </c>
-      <c r="E16">
-        <v>-9.7132348413950395E-2</v>
-      </c>
-      <c r="F16">
-        <v>-7</v>
-      </c>
-      <c r="G16">
-        <v>7.0974851746867804</v>
-      </c>
-      <c r="H16">
-        <v>3.22612962485763E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1.00891737857479</v>
-      </c>
-      <c r="C17">
-        <v>30.7590344310304</v>
-      </c>
-      <c r="D17">
-        <v>7.7738615591976998</v>
-      </c>
-      <c r="E17">
-        <v>-0.20878867418174599</v>
-      </c>
-      <c r="F17">
-        <v>-7</v>
-      </c>
-      <c r="G17">
-        <v>9.7963259235347699</v>
-      </c>
-      <c r="H17">
-        <v>4.4528754197885302E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1.0000000268273299</v>
-      </c>
-      <c r="C18">
-        <v>27.252116056458998</v>
-      </c>
-      <c r="D18">
-        <v>9.4321088607125603</v>
-      </c>
-      <c r="E18">
-        <v>7.4006247009545901E-3</v>
-      </c>
-      <c r="F18">
-        <v>-7</v>
-      </c>
-      <c r="G18">
-        <v>11.4895557772196</v>
-      </c>
-      <c r="H18">
-        <v>5.33353472379594E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1.0000581636802199</v>
-      </c>
-      <c r="C19">
-        <v>59.999997348354299</v>
-      </c>
-      <c r="D19">
-        <v>6.2584249289263303</v>
-      </c>
-      <c r="E19">
-        <v>0.73841623920450405</v>
-      </c>
-      <c r="F19">
-        <v>-6</v>
-      </c>
-      <c r="G19">
-        <v>2.9323656927546899</v>
-      </c>
-      <c r="H19">
-        <v>0.20980565656202799</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1.0000068075838</v>
-      </c>
-      <c r="C20">
-        <v>29.351668383988098</v>
-      </c>
-      <c r="D20">
-        <v>2.7987819194458901</v>
-      </c>
-      <c r="E20">
-        <v>-0.138200363820009</v>
-      </c>
-      <c r="F20">
-        <v>-7</v>
-      </c>
-      <c r="G20">
-        <v>4.8755748288072001</v>
-      </c>
-      <c r="H20">
-        <v>2.2161703767305401E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1.00027902424774</v>
-      </c>
-      <c r="C21">
-        <v>28.454360362274301</v>
-      </c>
-      <c r="D21">
-        <v>1.7920392087815001E-4</v>
-      </c>
-      <c r="E21">
-        <v>1.0536536356075501</v>
-      </c>
-      <c r="F21">
-        <v>-7</v>
-      </c>
-      <c r="G21">
-        <v>2.1000978504699299</v>
-      </c>
-      <c r="H21">
-        <v>0.16759394466145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1.0007552252937599</v>
-      </c>
-      <c r="C22">
-        <v>31.5578202450052</v>
-      </c>
-      <c r="D22">
-        <v>3.4256445184482098</v>
-      </c>
-      <c r="E22">
-        <v>-0.23050730577116399</v>
-      </c>
-      <c r="F22">
-        <v>-7</v>
-      </c>
-      <c r="G22">
-        <v>5.4773712683635898</v>
-      </c>
-      <c r="H22">
-        <v>2.4897142128925399E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>9.9970586871584395</v>
-      </c>
-      <c r="C23">
-        <v>30.0036722644187</v>
-      </c>
-      <c r="D23">
-        <v>3.7018664568847002</v>
-      </c>
-      <c r="E23">
-        <v>-0.174927188248959</v>
-      </c>
-      <c r="F23">
-        <v>-7</v>
-      </c>
-      <c r="G23">
-        <v>10.0494397525128</v>
-      </c>
-      <c r="H23">
-        <v>4.5679271602330797E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>1.0000011353995399</v>
-      </c>
-      <c r="C24">
-        <v>31.5102068615967</v>
-      </c>
-      <c r="D24">
-        <v>4.8237361547008097</v>
-      </c>
-      <c r="E24">
-        <v>-0.23054807574238401</v>
-      </c>
-      <c r="F24">
-        <v>-7</v>
-      </c>
-      <c r="G24">
-        <v>6.8567420412372604</v>
-      </c>
-      <c r="H24">
-        <v>3.1167009278351199E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1.00288421356914</v>
-      </c>
-      <c r="C25">
-        <v>34.054146175250303</v>
-      </c>
-      <c r="D25">
-        <v>1.2436959637737399</v>
-      </c>
-      <c r="E25">
-        <v>-9.3237625260023105E-2</v>
-      </c>
-      <c r="F25">
-        <v>-7</v>
-      </c>
-      <c r="G25">
-        <v>3.2926533425937401</v>
-      </c>
-      <c r="H25">
-        <v>1.4966606102698799E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1.00014023053757</v>
-      </c>
-      <c r="C26">
-        <v>35.453216674497</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1.85730655088649E-5</v>
-      </c>
-      <c r="E26">
-        <v>0.40054392026928698</v>
-      </c>
-      <c r="F26">
-        <v>-7</v>
-      </c>
-      <c r="G26">
-        <v>2.0512996000616899</v>
-      </c>
-      <c r="H26">
-        <v>6.9405677131582605E-2</v>
-      </c>
-      <c r="J26">
-        <f>E26-2</f>
-        <v>-1.5994560797307131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1.0000047719648899</v>
-      </c>
-      <c r="C27">
-        <v>32.545649310517497</v>
-      </c>
-      <c r="D27">
-        <v>1.73241815045835</v>
-      </c>
-      <c r="E27">
-        <v>-0.23996173851026101</v>
-      </c>
-      <c r="F27">
-        <v>-7</v>
-      </c>
-      <c r="G27">
-        <v>3.7856266097436801</v>
-      </c>
-      <c r="H27">
-        <v>1.7207393680653101E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>9.9574820815927794</v>
-      </c>
-      <c r="C28">
-        <v>33.841697163791302</v>
-      </c>
-      <c r="D28">
-        <v>2.06811592101409</v>
-      </c>
-      <c r="E28">
-        <v>-0.14484232720333701</v>
-      </c>
-      <c r="F28">
-        <v>-7</v>
-      </c>
-      <c r="G28">
-        <v>8.0223677726778195</v>
-      </c>
-      <c r="H28">
-        <v>3.6465308057626503E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1.0030983297369001</v>
-      </c>
-      <c r="C29">
-        <v>25.472845887942199</v>
-      </c>
-      <c r="D29">
-        <v>7.0934653714791596</v>
-      </c>
-      <c r="E29">
-        <v>0.187830479706668</v>
-      </c>
-      <c r="F29">
-        <v>-7</v>
-      </c>
-      <c r="G29">
-        <v>9.1879419774951003</v>
-      </c>
-      <c r="H29">
-        <v>6.9937944580978004E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>1.00034735534363</v>
-      </c>
-      <c r="C30">
-        <v>34.082187524799203</v>
-      </c>
-      <c r="D30">
-        <v>3.1395142681734201</v>
-      </c>
-      <c r="E30">
-        <v>-0.105598959466479</v>
-      </c>
-      <c r="F30">
-        <v>-7</v>
-      </c>
-      <c r="G30">
-        <v>5.1619446429937001</v>
-      </c>
-      <c r="H30">
-        <v>2.34633847408805E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>1.01644941386139</v>
-      </c>
-      <c r="C31">
-        <v>37.996232140716103</v>
-      </c>
-      <c r="D31">
-        <v>9.9991248781199005</v>
-      </c>
-      <c r="E31">
-        <v>0.56612744341612597</v>
-      </c>
-      <c r="F31">
-        <v>-7</v>
-      </c>
-      <c r="G31">
-        <v>11.8199482312965</v>
-      </c>
-      <c r="H31">
-        <v>0.13864615392740301</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>1.00060425281508</v>
-      </c>
-      <c r="C32">
-        <v>22.870935509755501</v>
-      </c>
-      <c r="D32">
-        <v>9.9999395013325305</v>
-      </c>
-      <c r="E32">
-        <v>0.59146854521325198</v>
-      </c>
-      <c r="F32">
-        <v>-7</v>
-      </c>
-      <c r="G32">
-        <v>12.107555313633</v>
-      </c>
-      <c r="H32">
-        <v>0.14375462411668299</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>1.0001614689092999</v>
-      </c>
-      <c r="C33">
-        <v>15.532869735218</v>
-      </c>
-      <c r="D33" s="1">
-        <v>9.4339388710391495E-7</v>
-      </c>
-      <c r="E33">
-        <v>1.3212173356646499</v>
-      </c>
-      <c r="F33">
-        <v>-7</v>
-      </c>
-      <c r="G33">
-        <v>2.17518597409713</v>
-      </c>
-      <c r="H33">
-        <v>0.20806980932286701</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>9.9979055284277791</v>
-      </c>
-      <c r="C34">
-        <v>5.0001173273312798</v>
-      </c>
-      <c r="D34">
-        <v>1.88091760315378E-4</v>
-      </c>
-      <c r="E34">
-        <v>1.24731836771156</v>
-      </c>
-      <c r="F34">
-        <v>-7</v>
-      </c>
-      <c r="G34">
-        <v>8.1599479275543096</v>
-      </c>
-      <c r="H34">
-        <v>0.224188427554708</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>9.9999981626591907</v>
-      </c>
-      <c r="C35">
-        <v>33.727018489546197</v>
-      </c>
-      <c r="D35">
-        <v>5.6867148493684798</v>
-      </c>
-      <c r="E35">
-        <v>-0.20667655326957801</v>
-      </c>
-      <c r="F35">
-        <v>-7</v>
-      </c>
-      <c r="G35">
-        <v>11.449034556030201</v>
-      </c>
-      <c r="H35">
-        <v>5.20410661637737E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>1.00276893558813</v>
-      </c>
-      <c r="C36">
-        <v>10.8255437081002</v>
-      </c>
-      <c r="D36">
-        <v>9.9986096785760807</v>
-      </c>
-      <c r="E36">
-        <v>1.0487114402066799</v>
-      </c>
-      <c r="F36">
-        <v>-7</v>
-      </c>
-      <c r="G36">
-        <v>12.1915241629166</v>
-      </c>
-      <c r="H36">
-        <v>0.21272273495335101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>1.00388498532863</v>
-      </c>
-      <c r="C37">
-        <v>27.234248850177298</v>
-      </c>
-      <c r="D37">
-        <v>3.7441279220279502</v>
-      </c>
-      <c r="E37">
-        <v>3.8773113301164799E-2</v>
-      </c>
-      <c r="F37">
-        <v>-7</v>
-      </c>
-      <c r="G37">
-        <v>5.8393262761984399</v>
-      </c>
-      <c r="H37">
-        <v>3.23583591597131E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>1.0039481249848199</v>
-      </c>
-      <c r="C38">
-        <v>45.558205236700701</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2.65365673529235E-5</v>
-      </c>
-      <c r="E38">
-        <v>1.3395736791865001</v>
-      </c>
-      <c r="F38">
-        <v>-7</v>
-      </c>
-      <c r="G38">
-        <v>1.9613199050104999</v>
-      </c>
-      <c r="H38">
-        <v>0.20985114235529501</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>1.0040335380757699</v>
-      </c>
-      <c r="C39">
-        <v>30.682565932007801</v>
-      </c>
-      <c r="D39">
-        <v>9.9913388941599397</v>
-      </c>
-      <c r="E39">
-        <v>-0.19842181526611299</v>
-      </c>
-      <c r="F39">
-        <v>-6</v>
-      </c>
-      <c r="G39">
-        <v>11.999908781169401</v>
-      </c>
-      <c r="H39">
-        <v>0.14025932562869201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>9.9999999079770401</v>
-      </c>
-      <c r="C40">
-        <v>28.188520117327499</v>
-      </c>
-      <c r="D40">
-        <v>7.3689551056440896</v>
-      </c>
-      <c r="E40">
-        <v>-6.9916473000348298E-2</v>
-      </c>
-      <c r="F40">
-        <v>-7</v>
-      </c>
-      <c r="G40">
-        <v>13.820304749545899</v>
-      </c>
-      <c r="H40">
-        <v>6.2819567043390395E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>1.00000065989336</v>
-      </c>
-      <c r="C41">
-        <v>35.308473258667803</v>
-      </c>
-      <c r="D41">
-        <v>2.16131272858361</v>
-      </c>
-      <c r="E41">
-        <v>0.136356750790394</v>
-      </c>
-      <c r="F41">
-        <v>-7</v>
-      </c>
-      <c r="G41">
-        <v>4.1810118618119798</v>
-      </c>
-      <c r="H41">
         <v>3.9458111990431803E-2</v>
       </c>
     </row>
